--- a/数据库表名属性含义.xlsx
+++ b/数据库表名属性含义.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11003"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GT/bisheshijian/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7C893C-F45F-4C45-A450-6274444501EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView xWindow="19260" yWindow="660" windowWidth="18980" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="102">
   <si>
     <t>announcements</t>
   </si>
@@ -208,152 +214,204 @@
     <t>amount</t>
   </si>
   <si>
+    <t>billing_period</t>
+  </si>
+  <si>
+    <t>paid_at</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>pay_method</t>
+  </si>
+  <si>
+    <t>property_units</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>room_number</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>enum('OCCUPIED','VACANT','UNDER_MAINTENANCE')</t>
+  </si>
+  <si>
+    <t>parking_space</t>
+  </si>
+  <si>
+    <t>repair_orders</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>enum('NORMAL','URGENT')</t>
+  </si>
+  <si>
+    <t>enum('PENDING','IN_PROGRESS','COMPLETED','CANCELLED')</t>
+  </si>
+  <si>
+    <t>assigned_worker</t>
+  </si>
+  <si>
+    <t>started_at</t>
+  </si>
+  <si>
+    <t>finished_at</t>
+  </si>
+  <si>
+    <t>evaluation_score</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>evaluation_remark</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>enum('OCCUPIED','VACANT','MOVING_OUT')</t>
+  </si>
+  <si>
+    <t>move_in_date</t>
+  </si>
+  <si>
+    <t>sys_roles</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>sys_user_roles</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>sys_users</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <t>last_login_at</t>
+  </si>
+  <si>
+    <t>vehicles</t>
+  </si>
+  <si>
+    <t>plate_number</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>decimal(38,2)</t>
-  </si>
-  <si>
-    <t>billing_period</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>enum('PAID','PENDING','OVERDUE')</t>
-  </si>
-  <si>
-    <t>paid_at</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>pay_method</t>
-  </si>
-  <si>
-    <t>property_units</t>
-  </si>
-  <si>
-    <t>MUL</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>room_number</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>enum('OCCUPIED','VACANT','UNDER_MAINTENANCE')</t>
-  </si>
-  <si>
-    <t>parking_space</t>
-  </si>
-  <si>
-    <t>repair_orders</t>
-  </si>
-  <si>
-    <t>order_number</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>enum('NORMAL','URGENT')</t>
-  </si>
-  <si>
-    <t>enum('PENDING','IN_PROGRESS','COMPLETED','CANCELLED')</t>
-  </si>
-  <si>
-    <t>assigned_worker</t>
-  </si>
-  <si>
-    <t>started_at</t>
-  </si>
-  <si>
-    <t>finished_at</t>
-  </si>
-  <si>
-    <t>evaluation_score</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>evaluation_remark</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>enum('OCCUPIED','VACANT','MOVING_OUT')</t>
-  </si>
-  <si>
-    <t>move_in_date</t>
-  </si>
-  <si>
-    <t>sys_roles</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>sys_user_roles</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>sys_users</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-  </si>
-  <si>
-    <t>last_login_at</t>
-  </si>
-  <si>
-    <t>vehicles</t>
-  </si>
-  <si>
-    <t>plate_number</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO 是否为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI 主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>announcements 公告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaints 投诉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee_bills 费用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_units 物业</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_orders 保修工单表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>residents 住户表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_roles 系统橘色表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,336 +444,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -723,268 +484,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -996,62 +503,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1329,31 +798,31 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="42.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="25.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="52.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1361,17 +830,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="20" spans="1:8">
+    <row r="6" spans="1:8" ht="18">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1452,33 +921,33 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>23</v>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1496,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1510,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1524,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1538,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1552,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1566,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1628,38 +1097,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:8">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:8">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1670,11 +1139,11 @@
       <c r="G19" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1687,11 +1156,11 @@
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1705,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1719,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1733,26 +1202,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
-        <v>43</v>
+      <c r="C24" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1761,40 +1230,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
-        <v>45</v>
+      <c r="C26" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -1803,7 +1272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1823,49 +1292,49 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:7">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:8" s="1" customFormat="1">
+      <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:8" s="5" customFormat="1">
+      <c r="A31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -1877,15 +1346,15 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1894,12 +1363,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1908,40 +1377,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1950,9 +1419,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -1966,7 +1435,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -1986,7 +1455,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
@@ -2004,32 +1473,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:7" s="5" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -2041,9 +1510,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -2055,9 +1524,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -2069,9 +1538,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -2083,9 +1552,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -2097,9 +1566,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -2111,12 +1580,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>38</v>
@@ -2125,12 +1594,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
@@ -2139,40 +1608,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -2181,12 +1650,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -2195,12 +1664,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
@@ -2209,26 +1678,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>64</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -2239,7 +1708,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -2258,8 +1727,8 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>56</v>
+      <c r="A58" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -2277,32 +1746,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="59" spans="1:7" s="5" customFormat="1">
+      <c r="A59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -2311,9 +1780,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -2325,9 +1794,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
@@ -2339,12 +1808,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
@@ -2353,12 +1822,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -2367,12 +1836,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
@@ -2381,29 +1850,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -2411,7 +1880,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
@@ -2431,7 +1900,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -2450,8 +1919,8 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>71</v>
+      <c r="A70" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -2469,12 +1938,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -2486,12 +1955,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
         <v>41</v>
@@ -2500,15 +1969,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -2516,7 +1985,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
@@ -2536,13 +2005,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
       </c>
-      <c r="C75" t="s">
-        <v>15</v>
+      <c r="C75" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -2554,12 +2023,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -2571,12 +2040,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
         <v>74</v>
-      </c>
-      <c r="B77" t="s">
-        <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -2590,7 +2059,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
@@ -2610,7 +2079,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
@@ -2630,7 +2099,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -2648,12 +2117,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -2665,26 +2134,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
         <v>77</v>
       </c>
-      <c r="B82" t="s">
-        <v>79</v>
-      </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
         <v>41</v>
@@ -2693,9 +2162,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
         <v>25</v>
@@ -2707,12 +2176,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
         <v>41</v>
@@ -2721,15 +2190,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -2738,12 +2207,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
@@ -2754,7 +2223,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
@@ -2774,7 +2243,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -2794,7 +2263,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -2812,9 +2281,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
         <v>24</v>
@@ -2826,9 +2295,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
         <v>40</v>
@@ -2840,12 +2309,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
         <v>26</v>
@@ -2857,12 +2326,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
         <v>85</v>
-      </c>
-      <c r="B94" t="s">
-        <v>87</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -2871,12 +2340,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -2885,9 +2354,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -2901,7 +2370,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
@@ -2921,7 +2390,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
         <v>21</v>
@@ -2940,7 +2409,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>